--- a/Excel/res/ExecSample.xlsx
+++ b/Excel/res/ExecSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E54714-FA3B-2C46-B569-7A9760A23A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBDD8C-A46C-F544-AAEC-6AFD44D5C0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -55,7 +55,6 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -203,14 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sProjectFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sPublicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,14 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{sProjectFolder}/services/Excel/ExcelToJsonFile/source/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{sProjectFolder}/services/Excel/ExcelToJsonFile/target/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +290,70 @@
   </si>
   <si>
     <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sProjectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF670E12"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sProjectFolderPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/services/Excel/ExcelToJsonFile/source/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF670E12"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sProjectFolderPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/services/Excel/ExcelToJsonFile/target/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sExecuteType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel执行模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,16 +397,21 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF670E12"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -524,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,6 +654,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF670E12"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -925,12 +981,12 @@
     <row r="1" spans="1:5">
       <c r="A1" s="16"/>
       <c r="B1" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -941,17 +997,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -959,11 +1015,11 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>3</v>
+      <c r="C4" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -972,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -986,41 +1042,41 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1031,41 +1087,41 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">

--- a/Excel/res/ExecSample.xlsx
+++ b/Excel/res/ExecSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBDD8C-A46C-F544-AAEC-6AFD44D5C0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60F4B5-3D87-7940-8E1F-9A181AA44EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,7 +305,6 @@
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sProjectFolderPath</t>
     </r>
@@ -331,7 +330,6 @@
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sProjectFolderPath</t>
     </r>
@@ -356,12 +354,20 @@
     <t>Excel执行模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>JustCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToJsonFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,13 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF670E12"/>
       <name val="等线 (正文)"/>
@@ -414,8 +413,20 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF670E12"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -566,13 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +652,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,8 +676,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,9 +1007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -980,20 +1022,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -1002,10 +1044,10 @@
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1057,7 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1035,10 +1077,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
@@ -1047,99 +1089,117 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" t="s">
+      <c r="C12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/ExecSample.xlsx
+++ b/Excel/res/ExecSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60F4B5-3D87-7940-8E1F-9A181AA44EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339BFB1-B252-9340-88CA-9ED3A0C210D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -305,6 +305,7 @@
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>sProjectFolderPath</t>
     </r>
@@ -330,6 +331,7 @@
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>sProjectFolderPath</t>
     </r>
@@ -359,7 +361,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToJsonFile</t>
+    <t>Folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,11 +414,6 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF670E12"/>
-      <name val="等线 (正文)"/>
     </font>
     <font>
       <b/>
@@ -1009,9 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Excel/res/ExecSample.xlsx
+++ b/Excel/res/ExecSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339BFB1-B252-9340-88CA-9ED3A0C210D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27681902-3491-F74A-AA93-C8924E226235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -35,43 +35,7 @@
     <author>贾世洋</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F29BD80-14BF-C34B-B845-159E19A31286}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不要填内容</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>第一列是用来分割步骤的</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
       <text>
         <r>
           <rPr>
@@ -85,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
       <text>
         <r>
           <rPr>
@@ -188,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sExecFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{__folder__}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,9 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sSourceFolder</t>
-  </si>
-  <si>
     <t>文件所在文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sTargetFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,41 +222,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins的本质也是命令行驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExecCMD 用来执行不需要指定参数值的C命令，比如 ls -l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sProjectFolderPath</t>
+    <t>Excel执行模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JustCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;projectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;executeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;sourceFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;targetFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;execFolderPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>{</t>
+      <t>{p</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
-      <t>sProjectFolderPath</t>
+      <t>rojectFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -324,16 +284,15 @@
   </si>
   <si>
     <r>
-      <t>{</t>
+      <t>{p</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF670E12"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
-      <t>sProjectFolderPath</t>
+      <t>rojectFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -346,22 +305,6 @@
       </rPr>
       <t>}/services/Excel/ExcelToJsonFile/target/</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sExecuteType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel执行模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JustCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +348,13 @@
       <sz val="12"/>
       <color rgb="FF670E12"/>
       <name val="等线 (正文)"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color rgb="FF670E12"/>
+      <name val="等线 (正文)"/>
     </font>
     <font>
       <b/>
@@ -423,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,18 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,18 +575,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,16 +596,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1015,186 +940,165 @@
     <col min="4" max="4" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" t="s">
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
